--- a/config_debug/zajindan_service.xlsx
+++ b/config_debug/zajindan_service.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="2625" windowWidth="25605" windowHeight="16065" tabRatio="793"/>
+    <workbookView xWindow="-27645" yWindow="2625" windowWidth="25605" windowHeight="16065" tabRatio="793" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hammer" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>id|</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>大金猪</t>
-  </si>
-  <si>
-    <t>zjd_icon12</t>
   </si>
   <si>
     <t>"jindan_Particle_H",6,4</t>
@@ -255,6 +252,18 @@
   </si>
   <si>
     <t>cs_mode_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_normal|图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjd_icon12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjd_icon20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -801,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -952,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -963,19 +972,19 @@
     <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="5" customWidth="1"/>
     <col min="3" max="4" width="31.125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.75" style="5" customWidth="1"/>
-    <col min="8" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="54.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="35" style="5" customWidth="1"/>
-    <col min="13" max="13" width="108.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="28.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="5"/>
+    <col min="5" max="7" width="27.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="5" customWidth="1"/>
+    <col min="9" max="10" width="12.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="54.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="35" style="5" customWidth="1"/>
+    <col min="14" max="14" width="108.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,32 +1001,35 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="43.5" customHeight="1">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">J2*10000</f>
+        <f t="shared" ref="B2:B14" si="0">K2*10000</f>
         <v>50</v>
       </c>
       <c r="C2" s="2">
@@ -1029,25 +1041,28 @@
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>0.3</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="43.5" customHeight="1">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" ht="43.5" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1062,27 +1077,28 @@
         <v>2000</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>0.3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>0.02</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="43.5" customHeight="1">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" ht="43.5" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1097,27 +1113,28 @@
         <v>1000</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
         <v>0.4</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>0.3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>0.04</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="43.5" customHeight="1">
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="43.5" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1132,27 +1149,28 @@
         <v>1000</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>0.4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>0.3</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>0.05</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="25.5" customHeight="1">
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" ht="25.5" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1167,25 +1185,26 @@
         <v>1000</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.4</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>0.3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1">
+    <row r="7" spans="1:18" ht="21" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1200,25 +1219,26 @@
         <v>500</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="H7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>0.3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:18" ht="18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1233,25 +1253,26 @@
         <v>400</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>0.4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>0.3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18">
+    <row r="9" spans="1:18" ht="18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1266,26 +1287,27 @@
         <v>300</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>0.4</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>0.3</v>
       </c>
-      <c r="J9" s="8">
-        <f t="shared" ref="J9:J13" si="1">J8</f>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9:K13" si="1">K8</f>
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:18" ht="18">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1300,26 +1322,27 @@
         <v>200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>0.4</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>0.3</v>
       </c>
-      <c r="J10" s="8">
-        <f>J8</f>
+      <c r="K10" s="8">
+        <f>K8</f>
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18">
+    <row r="11" spans="1:18" ht="18">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1334,25 +1357,26 @@
         <v>200</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
         <v>0.4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>0.3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:18" ht="18">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1367,26 +1391,27 @@
         <v>100</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7">
         <v>0.4</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>0.3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18">
+    <row r="13" spans="1:18" ht="18">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1401,26 +1426,27 @@
         <v>100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.4</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>0.3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75">
+    <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1435,20 +1461,21 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
         <v>0.4</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>0.3</v>
       </c>
-      <c r="J14" s="8">
-        <f>(1-SUM(J2:J13))</f>
+      <c r="K14" s="8">
+        <f>(1-SUM(K2:K13))</f>
         <v>0.25600000000000012</v>
       </c>
     </row>
@@ -1481,19 +1508,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1501,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15">
         <v>1554339600</v>
@@ -1518,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="14">
         <v>1556499600</v>
@@ -1562,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1582,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4">
         <v>18</v>
@@ -1599,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -1616,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -1633,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>6</v>
@@ -2475,7 +2502,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
